--- a/biology/Botanique/Éric_Corbeyran/Éric_Corbeyran.xlsx
+++ b/biology/Botanique/Éric_Corbeyran/Éric_Corbeyran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Corbeyran</t>
+          <t>Éric_Corbeyran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Éric Corbeyran, dit Corbeyran, est un scénariste de bande dessinée, né à Marseille le 14 décembre 1964. Il a signé plus de 400 albums au cours de sa carrière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Corbeyran</t>
+          <t>Éric_Corbeyran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Corbeyran exerce d'abord dans plusieurs domaines comme la photographie, l'illustration, les contes et la publicité avant de signer des scénarios de bande dessinée : la série Les Griffes du marais (dessin de Patrick Amblevert) paraît à partir de 1990, d'abord publiée chez Vents d'Ouest puis chez Hélyode[1]. Corbeyran exerce ensuite, pour Soleil et collabore avec des auteurs comme Rémi Chayé, Stéphane Tanneur, Laurent Sinoussi, Nicolas Guénet, Christophe Bec, Patrice Garcia[1]. En parallèle, il travaille pour Dargaud avec des bédéastes comme Olivier Berlion, Denis Falque, Richard Guérineau[1]. D'autres ouvrages sont publiés chez Ciel Ether, Casterman, Delcourt, les Humanoïdes associés, collaborant avec Alfred, Skiav (Éric Schiavinato), Andrei Arinouchkine, Cécil[1]. Il coordonne les collectifs Paroles de taulards, Paroles de taule, Paroles de parloirs et Paroles de sourds[1]. Pour Delcourt, il écrit des séries comme Abraxas, Petit Verglas, Kid Korrigan, Le Phalanstère du bout du monde ainsi que des séries dans l'univers du Chant des Stryges[1].
-En 2015, il adapte en BD le roman de David Foenkinos consacré à John Lennon, Lennon, paru en 2010 avec Horne Perreard au dessin[2],[3]. En 2019, il co-scénarise avec François de Closets une bande dessinée, servie par le dessin d'Éric Chabbert : Les Guerres d'Albert Einstein, prévue en deux volumes[4],[5].
-En 2020, après 30 ans de carrière, Corbeyran signe son 400e album avec L’Homme-Bouc, dessiné par Aurélien Morinière[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Corbeyran exerce d'abord dans plusieurs domaines comme la photographie, l'illustration, les contes et la publicité avant de signer des scénarios de bande dessinée : la série Les Griffes du marais (dessin de Patrick Amblevert) paraît à partir de 1990, d'abord publiée chez Vents d'Ouest puis chez Hélyode. Corbeyran exerce ensuite, pour Soleil et collabore avec des auteurs comme Rémi Chayé, Stéphane Tanneur, Laurent Sinoussi, Nicolas Guénet, Christophe Bec, Patrice Garcia. En parallèle, il travaille pour Dargaud avec des bédéastes comme Olivier Berlion, Denis Falque, Richard Guérineau. D'autres ouvrages sont publiés chez Ciel Ether, Casterman, Delcourt, les Humanoïdes associés, collaborant avec Alfred, Skiav (Éric Schiavinato), Andrei Arinouchkine, Cécil. Il coordonne les collectifs Paroles de taulards, Paroles de taule, Paroles de parloirs et Paroles de sourds. Pour Delcourt, il écrit des séries comme Abraxas, Petit Verglas, Kid Korrigan, Le Phalanstère du bout du monde ainsi que des séries dans l'univers du Chant des Stryges.
+En 2015, il adapte en BD le roman de David Foenkinos consacré à John Lennon, Lennon, paru en 2010 avec Horne Perreard au dessin,. En 2019, il co-scénarise avec François de Closets une bande dessinée, servie par le dessin d'Éric Chabbert : Les Guerres d'Albert Einstein, prévue en deux volumes,.
+En 2020, après 30 ans de carrière, Corbeyran signe son 400e album avec L’Homme-Bouc, dessiné par Aurélien Morinière.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Corbeyran</t>
+          <t>Éric_Corbeyran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>One shots
-Charmes fous, Dargaud (collection Long courrier), 2005Scénario : Éric Corbeyran - Dessin : Olivier Balez - Couleurs : Delf
+          <t>One shots</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charmes fous, Dargaud (collection Long courrier), 2005Scénario : Éric Corbeyran - Dessin : Olivier Balez - Couleurs : Delf
 De mémoire, Grand Angle, 2019Scénario et dessin : Éric Corbeyran - Couleurs : Fabien Blanchot, Sébastien Bouet
 La Digue, Delcourt (collection Encrages), 1998Scénario : Éric Corbeyran - Dessin : Alfred
 Elle ne pleure pas, elle chante, Delcourt (collection Mirages), 2004Scénario : Éric Corbeyran - Dessin : Thierry Murat - Couleurs : Thierry Murat
@@ -564,12 +583,9 @@
 Le Phalanstère du bout du monde, Delcourt (collection Encrages), 2001Scénario : Éric Corbeyran - Dessin : Amaury Bouillez
 Première Neige, Kana (collection « Made in »), 2009Scénario : Éric Corbeyran - Dessin : Byun Byung-jun - Couleurs : Byun Byung-jun
 Rosangella, Dargaud (collection Long courrier), 2007Scénario : Éric Corbeyran - Dessin : Olivier Berlion - Couleurs : Olivier Berlion
-Le Saigneur de Tiffauges, Soleil, 2010Scénario : Éric Corbeyran - Dessin : Horne Perreard - Couleurs : Cesano[7]
+Le Saigneur de Tiffauges, Soleil, 2010Scénario : Éric Corbeyran - Dessin : Horne Perreard - Couleurs : Cesano
 Le Souffle du vent, 12 bis, 2010Scénario : Éric Corbeyran - Dessin : Grun - Couleurs : Élise - Adaptation du spectacle d’arts martiaux Le Souffle du vent, créé par Stéphane Anière et Martin Lebreton
-Le Village qui s'amenuise[8], Dargaud (collection Long courrier), 2004Scénario : Éric Corbeyran - Dessin : Olivier Balez - Couleurs : Delf
-Séries
-L’univers des Stryges
-L’univers d’Asphodèle</t>
+Le Village qui s'amenuise, Dargaud (collection Long courrier), 2004Scénario : Éric Corbeyran - Dessin : Olivier Balez - Couleurs : Delf</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Corbeyran</t>
+          <t>Éric_Corbeyran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,15 +613,17 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996 : prix de l'enseignement 41 pour la Jeunesse pour Le cadet des Soupetard
-2000 : Prix Tournesol pour Paroles de taulards[11]
+2000 : Prix Tournesol pour Paroles de taulards
 2001 : Prix des libraires de bande dessinée pour Le Réseau Bombyce (avec Cécil)
 2005 : prix Jacques Lob
 2007 :  Prix Région Centre-Val-de-Loire pour Rosangella
-2009 : « Silver Award » au Prix international du manga pour Natty (avec Melvil)[12].
-2010 : Prix Tournesol pour Climax, t. 1 : Le Désert blanc (avec Luc Brahy et Achille Braquelaire)[13],[11]</t>
+2009 : « Silver Award » au Prix international du manga pour Natty (avec Melvil).
+2010 : Prix Tournesol pour Climax, t. 1 : Le Désert blanc (avec Luc Brahy et Achille Braquelaire),</t>
         </is>
       </c>
     </row>
